--- a/cluster/data test/dist-change-homer-nmdar-ctr-2.xlsx
+++ b/cluster/data test/dist-change-homer-nmdar-ctr-2.xlsx
@@ -370,1548 +370,2124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C97EF-C0A3-4FFB-BF4F-E4FD47136873}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B192"/>
+      <selection sqref="A1:C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>295.40737311981144</v>
       </c>
       <c r="B1">
         <v>317.93352254632543</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>117.79878390754908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>458.07900357349604</v>
       </c>
       <c r="B2">
         <v>658.15272538587112</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>98.512515624924333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>492.38972663013368</v>
       </c>
       <c r="B3">
         <v>473.56216819619357</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>64.632420609254467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>115.52766569716587</v>
       </c>
       <c r="B4">
         <v>114.06031244468787</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>89.52968254399984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120.15408486797074</v>
       </c>
       <c r="B5">
         <v>122.7954694796378</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>142.02244865081434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>68.186579894751276</v>
       </c>
       <c r="B6">
         <v>103.44099025962325</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>107.14872968107605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59.862467281890886</v>
       </c>
       <c r="B7">
         <v>124.2085198497839</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>105.89183102301173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>347.49885890422701</v>
       </c>
       <c r="B8">
         <v>499.84145885461299</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>76.913340323527919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>236.30179113578546</v>
       </c>
       <c r="B9">
         <v>255.51710065261176</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>112.98933843787364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75.39105152592326</v>
       </c>
       <c r="B10">
         <v>101.94996124371987</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>129.69849643565266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1989.4498232906371</v>
       </c>
       <c r="B11">
         <v>913.3343437142579</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>330.34935360444945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>126.02418255382709</v>
       </c>
       <c r="B12">
         <v>63.814442589910065</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>79.288615061017452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>806.64025747698906</v>
       </c>
       <c r="B13">
         <v>675.00784970460245</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>147.53781030332215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>101.20166760425712</v>
       </c>
       <c r="B14">
         <v>78.651103064582827</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>145.14671242496186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65.459916056184539</v>
       </c>
       <c r="B15">
         <v>125.68026772387893</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>85.18343495750905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>234.90047992680888</v>
       </c>
       <c r="B16">
         <v>1060.0321673503597</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>179.58771557262494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>556.35435701845711</v>
       </c>
       <c r="B17">
         <v>436.96202108132252</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>150.25284262169654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>881.92626898489732</v>
       </c>
       <c r="B18">
         <v>795.6603884201337</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>44.326377570907084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1482.2958264560691</v>
       </c>
       <c r="B19">
         <v>1155.6281125865451</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1495.7827656545085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>319.60667545336628</v>
       </c>
       <c r="B20">
         <v>400.84988603052648</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>86.19050679590562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80.682746901545585</v>
       </c>
       <c r="B21">
         <v>192.84846133783344</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>105.98622643394538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1926.9709590190332</v>
       </c>
       <c r="B22">
         <v>1428.3310114956373</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>109.95456030526849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>80.885527320500969</v>
       </c>
       <c r="B23">
         <v>92.090124343204351</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>84.096572813015698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1566.6353377424255</v>
       </c>
       <c r="B24">
         <v>1550.5732382903377</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>125.33386773819844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1839.7084930336985</v>
       </c>
       <c r="B25">
         <v>678.44447197989086</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>161.57993563419024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>145.18750581621282</v>
       </c>
       <c r="B26">
         <v>198.54012941520534</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>90.57799743319103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>94.9687554343313</v>
       </c>
       <c r="B27">
         <v>53.240728080010228</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>63.579445503241793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1413.6531915578939</v>
       </c>
       <c r="B28">
         <v>1072.8168196441788</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>69.784603615103819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>70.615851047056239</v>
       </c>
       <c r="B29">
         <v>94.893135001379719</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>99.457974781277386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>235.2174561655261</v>
       </c>
       <c r="B30">
         <v>225.90929732386934</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>112.74969587393052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>362.84316338202808</v>
       </c>
       <c r="B31">
         <v>171.22926628527966</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>89.609780405522145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75.852739824153844</v>
       </c>
       <c r="B32">
         <v>71.044058450949748</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>107.72126167399853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>93.768878979048793</v>
       </c>
       <c r="B33">
         <v>71.30572091819063</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>41.203142492854788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>176.25462693608702</v>
       </c>
       <c r="B34">
         <v>42.11020938484824</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>193.59449966487378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1009.0203770154935</v>
       </c>
       <c r="B35">
         <v>1178.6832594180494</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>89.263725234996159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>290.67060890269602</v>
       </c>
       <c r="B36">
         <v>258.84489188530443</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>73.199627768851968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>75.112410919929417</v>
       </c>
       <c r="B37">
         <v>102.10639549439551</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>57.048709369297598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>438.68037221160324</v>
       </c>
       <c r="B38">
         <v>525.13645223025844</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>136.2346132398601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>910.20546089344612</v>
       </c>
       <c r="B39">
         <v>902.27590487235796</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>150.3349724549393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>105.60839897073069</v>
       </c>
       <c r="B40">
         <v>209.17516455532351</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>146.35740576988934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1184.7873120723798</v>
       </c>
       <c r="B41">
         <v>1174.7963557326557</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>62.815779130750656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>69.871070547750804</v>
       </c>
       <c r="B42">
         <v>59.063340600125635</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>166.53336843324809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>125.36990770366867</v>
       </c>
       <c r="B43">
         <v>161.47548954107009</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>234.56122708037859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1053.4584291995791</v>
       </c>
       <c r="B44">
         <v>833.98070359704263</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>152.39237982267284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>673.79817007739916</v>
       </c>
       <c r="B45">
         <v>453.05890899360378</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>55.938011507850234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>120.68381279158979</v>
       </c>
       <c r="B46">
         <v>105.70889939968328</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>177.9176259809694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2979.7171359359127</v>
       </c>
       <c r="B47">
         <v>2749.5446837197833</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>94.910175681136081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1534.9892229630034</v>
       </c>
       <c r="B48">
         <v>817.64067569034739</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>88.769866989223061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>737.70577396221734</v>
       </c>
       <c r="B49">
         <v>684.68130245941859</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>96.185920511293105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>248.02929686175926</v>
       </c>
       <c r="B50">
         <v>153.95398796246241</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>249.74861063967833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2127.4486037418551</v>
       </c>
       <c r="B51">
         <v>763.13299663729822</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1835.289925199351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1122.9080473357835</v>
       </c>
       <c r="B52">
         <v>182.96956021806722</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>86.346122902469403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1137.7408109808612</v>
       </c>
       <c r="B53">
         <v>670.85080493596058</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>128.74513758824256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>749.29238835838953</v>
       </c>
       <c r="B54">
         <v>909.44848824379039</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>183.25912035457475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>185.80705698076389</v>
       </c>
       <c r="B55">
         <v>141.92325692403986</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>184.05702686813518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>72.87184236617712</v>
       </c>
       <c r="B56">
         <v>55.995686822972637</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>125.96435749868839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>86.493237964384917</v>
       </c>
       <c r="B57">
         <v>98.243522770453609</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>132.7600536295412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>78.920977139665879</v>
       </c>
       <c r="B58">
         <v>126.53689345091442</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>75.0642350398264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>661.32214385506734</v>
       </c>
       <c r="B59">
         <v>492.25235615936896</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>228.16137295930255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>281.99806779025755</v>
       </c>
       <c r="B60">
         <v>560.09668557561713</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>450.60705664212247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>112.19648519062345</v>
       </c>
       <c r="B61">
         <v>728.26311061534034</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>801.72745866188643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>740.88277803441497</v>
       </c>
       <c r="B62">
         <v>669.34253408215375</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>54.000301407589497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>751.76509631747456</v>
       </c>
       <c r="B63">
         <v>68.647092725990447</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>225.79664257432944</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>142.97223966983347</v>
       </c>
       <c r="B64">
         <v>674.14142256841649</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>2273.7201237335221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>481.21117373740634</v>
       </c>
       <c r="B65">
         <v>660.46046412358567</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>181.8418491832638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>172.5414900759252</v>
       </c>
       <c r="B66">
         <v>54.104423710953036</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>152.28309021591369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>963.01696740336058</v>
       </c>
       <c r="B67">
         <v>118.90984659818135</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>131.23374620382685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>169.48153347912958</v>
       </c>
       <c r="B68">
         <v>563.61995872736554</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>170.28340561869658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>175.78516961335799</v>
       </c>
       <c r="B69">
         <v>272.56733765457261</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>108.8063894341675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1515.5997319727446</v>
       </c>
       <c r="B70">
         <v>1338.1753969266745</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>304.51087275385072</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>458.50555006188148</v>
       </c>
       <c r="B71">
         <v>181.73951264016361</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>31.411528994567345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>219.58303782583144</v>
       </c>
       <c r="B72">
         <v>257.50087355598805</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>38.718293989356965</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>400.15538048692747</v>
       </c>
       <c r="B73">
         <v>346.1047543968196</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>83.745519679831972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>623.96004581414456</v>
       </c>
       <c r="B74">
         <v>2110.0866547272285</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>104.97320946695405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1298.9033228407488</v>
       </c>
       <c r="B75">
         <v>621.66113651722731</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>176.70017556009265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>109.21502450872103</v>
       </c>
       <c r="B76">
         <v>50.568843461298968</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>64.591013269483241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>53.668458928778264</v>
       </c>
       <c r="B77">
         <v>569.49514689949285</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>93.399754525878151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>186.87149351721814</v>
       </c>
       <c r="B78">
         <v>223.09385720418391</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>91.521154345241456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>240.07698105778294</v>
       </c>
       <c r="B79">
         <v>91.156824535479686</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>97.769476795058807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1852.9790381379114</v>
       </c>
       <c r="B80">
         <v>2011.8925313853197</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>174.41643477838858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>107.51684872463132</v>
       </c>
       <c r="B81">
         <v>207.14907257270011</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>174.23579936237854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>120.36225561720116</v>
       </c>
       <c r="B82">
         <v>100.21986987182923</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>62.168809456708807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1617.8507195192399</v>
       </c>
       <c r="B83">
         <v>442.13533062114374</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>238.75267822938781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1244.7795667377641</v>
       </c>
       <c r="B84">
         <v>982.15354107719497</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>257.2464911098902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>276.76194128772306</v>
       </c>
       <c r="B85">
         <v>138.01518636463808</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>855.79781121324595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>373.06193564636709</v>
       </c>
       <c r="B86">
         <v>378.97210823458528</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>116.53208270178773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>246.50053729699857</v>
       </c>
       <c r="B87">
         <v>220.68893547563863</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>50.429809275865146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1153.2769530944051</v>
       </c>
       <c r="B88">
         <v>221.2928752779188</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>118.56026394151473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1061.4962922575592</v>
       </c>
       <c r="B89">
         <v>1182.2204383058902</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>72.114601543897692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1175.7881980440188</v>
       </c>
       <c r="B90">
         <v>1109.3928111909922</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>56.558930910505559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>175.2988061711043</v>
       </c>
       <c r="B91">
         <v>222.12835350355218</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>240.03960506676677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>184.32336081349465</v>
       </c>
       <c r="B92">
         <v>240.22151379203174</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>120.78563630444366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1918.0379000806279</v>
       </c>
       <c r="B93">
         <v>214.92827881954173</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>47.443404415587644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>188.02727624345863</v>
       </c>
       <c r="B94">
         <v>100.73093118940785</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>229.03750640596206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2003.5284369803378</v>
       </c>
       <c r="B95">
         <v>372.2555243819819</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>90.359929254409749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>267.68763699569718</v>
       </c>
       <c r="B96">
         <v>195.65120377364755</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>43.767516671384342</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>428.10547242667064</v>
       </c>
       <c r="B97">
         <v>222.22967977806294</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>232.78987841983559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1091.0666571462473</v>
       </c>
       <c r="B98">
         <v>552.99179985889293</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>128.51567697810495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>176.25462693608702</v>
       </c>
       <c r="B99">
         <v>1051.8724061459727</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>889.52000253925507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1201.8308117747281</v>
       </c>
       <c r="B100">
         <v>1451.8563362296709</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>131.47780482820954</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>134.28179841781221</v>
       </c>
       <c r="B101">
         <v>389.91449905015332</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>725.32601442790951</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2276.5986521498849</v>
       </c>
       <c r="B102">
         <v>417.65729128942445</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>153.65749948750653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>194.44524529781401</v>
       </c>
       <c r="B103">
         <v>1150.140794855758</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>1222.4381136636086</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>749.29238835838953</v>
       </c>
       <c r="B104">
         <v>404.13731906015727</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>992.18028138177226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>126.02418255382709</v>
       </c>
       <c r="B105">
         <v>844.98829709640097</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>1764.9471587270295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>515.35505432867035</v>
       </c>
       <c r="B106">
         <v>160.52116702776138</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>233.09133990763922</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>430.45808916663344</v>
       </c>
       <c r="B107">
         <v>298.61697512659202</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>34.695263749725704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>74.526551555683241</v>
       </c>
       <c r="B108">
         <v>140.10460728899281</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>119.1385892978371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>805.80454966430432</v>
       </c>
       <c r="B109">
         <v>628.45016242782367</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>69.864184359508286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>680.00609122885862</v>
       </c>
       <c r="B110">
         <v>551.19977645972654</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>221.16548092399412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>604.34448235413583</v>
       </c>
       <c r="B111">
         <v>454.62655333448566</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>456.7876868540863</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>495.21965985168555</v>
       </c>
       <c r="B112">
         <v>455.33582642191266</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>94.85388003557614</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>127.05610679737799</v>
       </c>
       <c r="B113">
         <v>106.6236896889195</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>157.72143130909313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>283.87186975738331</v>
       </c>
       <c r="B114">
         <v>283.72445011323043</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>175.26802485072096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1313.9686236997657</v>
       </c>
       <c r="B115">
         <v>46.233388904976664</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>112.8719836328838</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>145.18750581621282</v>
       </c>
       <c r="B116">
         <v>99.023707065337788</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>1071.0193212379427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>150.02311639624403</v>
       </c>
       <c r="B117">
         <v>117.18248935211702</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>21.186495220788107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116.44482993369995</v>
       </c>
       <c r="B118">
         <v>273.62048933823837</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>93.20191980296525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>289.54350792728684</v>
       </c>
       <c r="B119">
         <v>224.04687225877578</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>180.17713584952858</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>188.58741611858895</v>
       </c>
       <c r="B120">
         <v>811.63960437700666</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>271.88463736377315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2342.7137535240349</v>
       </c>
       <c r="B121">
         <v>1370.9338042687655</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>49.681839051973704</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>151.41697561390097</v>
       </c>
       <c r="B122">
         <v>116.13875633042309</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>124.66016498980251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>88.143749081467604</v>
       </c>
       <c r="B123">
         <v>61.914509364830863</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>130.71984368862866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2485.1223056764402</v>
       </c>
       <c r="B124">
         <v>177.11361202084552</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>152.41353636834344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>70.838727262864737</v>
       </c>
       <c r="B125">
         <v>101.54318507155621</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>44.555627830477896</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>171.07663185498618</v>
       </c>
       <c r="B126">
         <v>1286.7885432787559</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>1841.1952771197884</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>618.27282222906274</v>
       </c>
       <c r="B127">
         <v>551.88297723443702</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>95.895701728704296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>286.42020520257142</v>
       </c>
       <c r="B128">
         <v>157.89855550864621</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>147.63420565486524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>879.63494162217046</v>
       </c>
       <c r="B129">
         <v>460.13877649499813</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>98.828773777573119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1047.5460560845593</v>
       </c>
       <c r="B130">
         <v>371.83208956928888</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>73.612078283469032</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>312.55209128545914</v>
       </c>
       <c r="B131">
         <v>631.81082032830284</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>291.79517186028136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>491.75586401380224</v>
       </c>
       <c r="B132">
         <v>278.43238824520927</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>125.31294825447075</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1009.0203770154935</v>
       </c>
       <c r="B133">
         <v>139.14962592343809</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>1168.1850131179763</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>418.59759912498185</v>
       </c>
       <c r="B134">
         <v>306.13712606141877</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>47.291830474282619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>483.5571817330196</v>
       </c>
       <c r="B135">
         <v>206.78992557098141</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>90.142599099523977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2082.5053655079091</v>
       </c>
       <c r="B136">
         <v>171.42549683011904</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>127.79736783930815</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>86.23986110040299</v>
       </c>
       <c r="B137">
         <v>69.568136102849039</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>169.39792830578276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>52.331557460224893</v>
       </c>
       <c r="B138">
         <v>133.66969070164399</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>168.65458116061563</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>479.7575834088135</v>
       </c>
       <c r="B139">
         <v>116.58303030332473</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>103.88169030919494</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>143.46535493658203</v>
       </c>
       <c r="B140">
         <v>842.68353520370442</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>800.90370603936458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>346.83614960829652</v>
       </c>
       <c r="B141">
         <v>256.23636421546252</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>108.79777875772356</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>214.45923835929543</v>
       </c>
       <c r="B142">
         <v>150.39805128018671</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>80.970577944751497</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>521.7112745104663</v>
       </c>
       <c r="B143">
         <v>1846.2631031759061</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>197.41229378139147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>244.28358194993857</v>
       </c>
       <c r="B144">
         <v>189.61048753084768</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>152.23168618862383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>153.52710187492846</v>
       </c>
       <c r="B145">
         <v>297.21968166087333</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>2334.9640015193386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1562.1347172533012</v>
       </c>
       <c r="B146">
         <v>1116.8028988032231</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>113.76670244804633</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1207.6906046704896</v>
       </c>
       <c r="B147">
         <v>1268.67335576203</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>252.1984704661877</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>46.57213771294451</v>
       </c>
       <c r="B148">
         <v>65.083058118449969</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>64.465726565343601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>321.00869432851078</v>
       </c>
       <c r="B149">
         <v>607.74650599242034</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>187.81155035633054</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>386.98578011653166</v>
       </c>
       <c r="B150">
         <v>392.74138139888294</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>90.626665178545565</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>178.80635660887745</v>
       </c>
       <c r="B151">
         <v>112.82184582951921</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>225.62950253220814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>698.49818102674601</v>
       </c>
       <c r="B152">
         <v>740.67700320524511</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>142.42793331130866</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>885.23551447766579</v>
       </c>
       <c r="B153">
         <v>153.63400627868111</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>164.34967520182943</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>243.19250402733908</v>
       </c>
       <c r="B154">
         <v>97.611214205917776</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>364.34082804502054</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1507.1957427522602</v>
       </c>
       <c r="B155">
         <v>1568.706636622913</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>96.488531208108569</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>321.00869432851078</v>
       </c>
       <c r="B156">
         <v>942.57814141398853</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>1727.5921668771748</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>979.89011283510388</v>
       </c>
       <c r="B157">
         <v>736.58457476327385</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>78.359390746633721</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1137.7408109808612</v>
       </c>
       <c r="B158">
         <v>252.26820630674774</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>1307.9587918151904</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>131.61750418449256</v>
       </c>
       <c r="B159">
         <v>152.78810935799385</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>133.83157105014652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>269.15741021349663</v>
       </c>
       <c r="B160">
         <v>225.66114918958823</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>73.123508553862393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>162.41287664606222</v>
       </c>
       <c r="B161">
         <v>203.64145466291251</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>194.80197695468584</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>408.64579728545397</v>
       </c>
       <c r="B162">
         <v>369.93028237146541</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>97.894961374477049</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1431.7628823471084</v>
       </c>
       <c r="B163">
         <v>1340.9718551915485</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>139.66051300844398</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>160.47499514769356</v>
       </c>
       <c r="B164">
         <v>277.81675610853569</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>642.94787645946769</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>115.80443879409549</v>
       </c>
       <c r="B165">
         <v>114.24413010026915</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>90.349323724062458</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>147.12426423407126</v>
       </c>
       <c r="B166">
         <v>194.69578748386368</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>86.728309030599277</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>275.62028673907724</v>
       </c>
       <c r="B167">
         <v>335.52736983218978</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>69.321208239882012</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>176.91852432818948</v>
       </c>
       <c r="B168">
         <v>158.5428546886933</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>76.067738423275614</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>164.59345660440522</v>
       </c>
       <c r="B169">
         <v>484.31927404443513</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>27.713313916242203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>296.10982005053836</v>
       </c>
       <c r="B170">
         <v>159.34653526217346</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>256.98465089235015</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>98.425148810188034</v>
       </c>
       <c r="B171">
         <v>151.79604744208177</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>117.25714588194975</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>212.44036247010254</v>
       </c>
       <c r="B172">
         <v>558.90439256176091</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>294.56125258810323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1314.2131011251988</v>
       </c>
       <c r="B173">
         <v>298.85667489169094</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>76.840940497229411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>546.59997425872245</v>
       </c>
       <c r="B174">
         <v>413.01982752798261</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>112.12908334122487</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1707.8807188145288</v>
       </c>
       <c r="B175">
         <v>46.21282882474047</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>47.162166407534372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>221.02047885337464</v>
       </c>
       <c r="B176">
         <v>272.31015355446431</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>103.14571647079829</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>253.3848356821857</v>
       </c>
       <c r="B177">
         <v>159.40898756353596</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>435.27490664709046</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1183.9326271207883</v>
       </c>
       <c r="B178">
         <v>110.58746197740784</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>269.61431801750206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>21321.002240449481</v>
       </c>
       <c r="B179">
         <v>6547.2298875809374</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>57.693970434432266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>347.49885890422701</v>
       </c>
       <c r="B180">
         <v>2157.3571434656938</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>2601.146713566035</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>165.63048329372748</v>
       </c>
       <c r="B181">
         <v>128.05540808252226</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>227.86630113770786</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1445.9255073509732</v>
       </c>
       <c r="B182">
         <v>680.66690506889699</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>85.571698740458302</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>96.739135456076298</v>
       </c>
       <c r="B183">
         <v>105.88351934160612</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>120.793614841161</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1100.7088613827455</v>
       </c>
       <c r="B184">
         <v>960.32124602256079</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>68.790964757415892</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>137.8162641238483</v>
       </c>
       <c r="B185">
         <v>290.51965362733091</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>210.66442996238095</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>879.63494162217046</v>
       </c>
       <c r="B186">
         <v>438.04301437743129</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>1713.1720512496552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>294.71316373859509</v>
       </c>
       <c r="B187">
         <v>210.39611247146101</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>171.49191096591028</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2091.3647225923673</v>
       </c>
       <c r="B188">
         <v>1201.1214376756177</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>1206.7519230630244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>392.61814302594621</v>
       </c>
       <c r="B189">
         <v>312.22957510022735</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>53.3963747811556</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>286.42020520257142</v>
       </c>
       <c r="B190">
         <v>204.5594719744638</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>1415.6310061967979</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2591.9174987806969</v>
       </c>
       <c r="B191">
         <v>2799.9876276338091</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>115.68171759193372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>651.32507359066233</v>
       </c>
       <c r="B192">
         <v>287.44561771886617</v>
+      </c>
+      <c r="C192">
+        <v>290.2968426909888</v>
       </c>
     </row>
   </sheetData>
